--- a/app/db/mapping/inflation/inflation_mapping_template.xlsx
+++ b/app/db/mapping/inflation/inflation_mapping_template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidding/Desktop/East_Asia_Econ/econ-db/app/db/mapping/inflation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6BCEA731-7481-D34D-8EA1-6D5130DFD9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{09933656-BEDB-4B40-A16C-AF85DE3DA611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="14520" yWindow="15840" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inflation_data_mapping" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="30" uniqueCount="30">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="32" uniqueCount="32">
   <si>
     <t>Main_category</t>
   </si>
@@ -52,9 +52,6 @@
     <t>CPI</t>
   </si>
   <si>
-    <t>LCU</t>
-  </si>
-  <si>
     <t>All items</t>
   </si>
   <si>
@@ -67,18 +64,6 @@
     <t>Services</t>
   </si>
   <si>
-    <t>LCU, SA</t>
-  </si>
-  <si>
-    <t>LCU, % YoY</t>
-  </si>
-  <si>
-    <t>LCU, % MoM annualised</t>
-  </si>
-  <si>
-    <t>LCU, % MoM annualised, SA</t>
-  </si>
-  <si>
     <t>Rents</t>
   </si>
   <si>
@@ -125,12 +110,33 @@
   </si>
   <si>
     <t>Food and non-alcoholic beverages</t>
+  </si>
+  <si>
+    <t>Value_type</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>% YoY</t>
+  </si>
+  <si>
+    <t>% YoY, SA</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>% MoM annualised</t>
+  </si>
+  <si>
+    <t>% MoM annualised, SA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -967,209 +973,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
+      <c r="E21">
         <v>2</v>
       </c>
     </row>

--- a/app/db/mapping/inflation/inflation_mapping_template.xlsx
+++ b/app/db/mapping/inflation/inflation_mapping_template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidding/Desktop/East_Asia_Econ/econ-db/app/db/mapping/inflation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{09933656-BEDB-4B40-A16C-AF85DE3DA611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6BCEA731-7481-D34D-8EA1-6D5130DFD9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="15840" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="inflation_data_mapping" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="32" uniqueCount="32">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="30" uniqueCount="30">
   <si>
     <t>Main_category</t>
   </si>
@@ -52,6 +52,9 @@
     <t>CPI</t>
   </si>
   <si>
+    <t>LCU</t>
+  </si>
+  <si>
     <t>All items</t>
   </si>
   <si>
@@ -64,6 +67,18 @@
     <t>Services</t>
   </si>
   <si>
+    <t>LCU, SA</t>
+  </si>
+  <si>
+    <t>LCU, % YoY</t>
+  </si>
+  <si>
+    <t>LCU, % MoM annualised</t>
+  </si>
+  <si>
+    <t>LCU, % MoM annualised, SA</t>
+  </si>
+  <si>
     <t>Rents</t>
   </si>
   <si>
@@ -110,33 +125,12 @@
   </si>
   <si>
     <t>Food and non-alcoholic beverages</t>
-  </si>
-  <si>
-    <t>Value_type</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>% YoY</t>
-  </si>
-  <si>
-    <t>% YoY, SA</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>% MoM annualised</t>
-  </si>
-  <si>
-    <t>% MoM annualised, SA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -973,216 +967,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21">
+      <c r="D21">
         <v>2</v>
       </c>
     </row>
